--- a/data/processed/diccionario_vars.xlsx
+++ b/data/processed/diccionario_vars.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>nominal_ohe_source</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>nominal_ohe_source</t>
         </is>
       </c>
     </row>
@@ -501,7 +501,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>num</t>
+          <t>scalar</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>nominal_ohe_source</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>nominal_ohe_source</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -789,7 +789,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>num</t>
+          <t>scalar</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>cat</t>
+          <t>ordinal</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ST297Q07JA</t>
+          <t>ST297Q06JA</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,10 +1120,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>ST297Q07JA</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>bin</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
           <t>ST297Q09JA</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t>bin</t>
         </is>
